--- a/Test Data/Security.xlsx
+++ b/Test Data/Security.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EclipseWorkSpace\MISv2\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EclipseWorkSpace\MISv2\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D656BB1-43B5-45A9-81E1-9D3A038FFADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE05A5EA-5FDE-404B-84DC-68B5AEC507D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{518B5AEA-7A68-4594-8FE3-D3D436C5CACA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{518B5AEA-7A68-4594-8FE3-D3D436C5CACA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <t>Security IR</t>
   </si>
@@ -102,43 +102,64 @@
     <t>Invoice Summary Per Site</t>
   </si>
   <si>
+    <t xml:space="preserve">Calls </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emails </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting Minutes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handover </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Tasks </t>
+  </si>
+  <si>
     <t>Rota Verification with RMS</t>
   </si>
   <si>
+    <t>Guards Double Entry Notificatiom</t>
+  </si>
+  <si>
     <t>Email Scanning</t>
   </si>
   <si>
-    <t>yy</t>
-  </si>
-  <si>
-    <t>Guards Double Entry Notification</t>
-  </si>
-  <si>
-    <t>Calls</t>
-  </si>
-  <si>
-    <t>Emails</t>
-  </si>
-  <si>
-    <t>Meeting</t>
-  </si>
-  <si>
-    <t>Meeting Minutes</t>
-  </si>
-  <si>
-    <t>Handover</t>
-  </si>
-  <si>
-    <t>Training</t>
-  </si>
-  <si>
-    <t>Other Tasks</t>
-  </si>
-  <si>
-    <t>Textarea</t>
-  </si>
-  <si>
-    <t>Number</t>
+    <t>Security IR weekly logsheet checking (per incident)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR Related CCTV Footage </t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>Specify No. Of Days</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Specify Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Type 1 For Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Specify Duration in Mins</t>
+  </si>
+  <si>
+    <t>Specify Task</t>
+  </si>
+  <si>
+    <t>Specify In Brief</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -162,18 +183,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -188,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -196,7 +211,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,32 +525,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11037B7B-D0AA-4240-B6DC-3BC2A05EB369}">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="60" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.28515625" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -547,7 +567,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -558,9 +578,8 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>35</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -582,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -593,7 +612,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -604,7 +623,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -615,7 +634,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -626,7 +645,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -637,7 +656,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -648,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -659,7 +678,7 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -667,10 +686,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -678,10 +697,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -689,10 +708,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -700,10 +719,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -711,10 +730,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -722,10 +741,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -733,10 +752,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -744,10 +763,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -755,10 +774,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -766,10 +785,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -777,10 +796,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -788,10 +807,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -799,10 +818,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -810,10 +829,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -821,10 +840,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -832,10 +851,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -843,26 +862,21 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+        <v>35</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -870,21 +884,47 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>31</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
